--- a/biology/Zoologie/Dromomeryx/Dromomeryx.xlsx
+++ b/biology/Zoologie/Dromomeryx/Dromomeryx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dromomeryx borealis
-Dromomeryx est un genre fossile d'ongulés artiodactyles de la famille des Palaeomerycidae qui étaient endémiques de l'Amérique du Nord[1].
+Dromomeryx est un genre fossile d'ongulés artiodactyles de la famille des Palaeomerycidae qui étaient endémiques de l'Amérique du Nord.
 Ce genre n'est représenté que par une seule espèce, Dromomeryx borealis.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description en 1877, Edward Drinker Cope indique que la longueur totale du crâne était de 0,32 m[2] et que cet animal devait être d'une taille similaire à celle de l'actuel Cerf hémione (Odocoileus hemionus)[2],[note 1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description en 1877, Edward Drinker Cope indique que la longueur totale du crâne était de 0,32 m et que cet animal devait être d'une taille similaire à celle de l'actuel Cerf hémione (Odocoileus hemionus),[note 1].
 </t>
         </is>
       </c>
